--- a/dumps/Stocks/Suzlon Energy.xlsx
+++ b/dumps/Stocks/Suzlon Energy.xlsx
@@ -8,11 +8,11 @@
   </sheets>
   <definedNames>
     <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">'Trading History'!$A$4:$AG$15</definedName>
-    <definedName hidden="1" localSheetId="1" name="Z_741A8627_C023_4662_91AE_DB76CF74956A_.wvu.FilterData">'Trading History'!$A$4:$AR$44</definedName>
+    <definedName hidden="1" localSheetId="1" name="Z_ABFF7E03_9026_46C2_B95C_36BD1D6CDF22_.wvu.FilterData">'Trading History'!$A$4:$AR$44</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{741A8627-C023-4662-91AE-DB76CF74956A}" name="Filter 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{ABFF7E03-9026-46C2-B95C-36BD1D6CDF22}" name="Filter 1"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -835,8 +835,8 @@
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""NSE:SUZLON"", ""price"")"),48.05)</f>
-        <v>48.05</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""NSE:SUZLON"", ""price"")"),47.44)</f>
+        <v>47.44</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -1163,7 +1163,7 @@
       </c>
       <c r="L10" s="15">
         <f>IFERROR(AVERAGE('Trading History'!AE4:AE1003), 0)</f>
-        <v>-0.759709338</v>
+        <v>-0.7579134904</v>
       </c>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -28382,7 +28382,7 @@
       </c>
       <c r="J5" s="50">
         <f>Index!$C$2</f>
-        <v>48.05</v>
+        <v>47.44</v>
       </c>
       <c r="K5" s="51"/>
       <c r="L5" s="52"/>
@@ -28440,7 +28440,7 @@
       </c>
       <c r="J6" s="50">
         <f>Index!$C$2</f>
-        <v>48.05</v>
+        <v>47.44</v>
       </c>
       <c r="K6" s="51"/>
       <c r="L6" s="52"/>
@@ -28498,7 +28498,7 @@
       </c>
       <c r="J7" s="50">
         <f>Index!$C$2</f>
-        <v>48.05</v>
+        <v>47.44</v>
       </c>
       <c r="K7" s="51"/>
       <c r="L7" s="52"/>
@@ -28535,7 +28535,7 @@
       </c>
       <c r="AE7" s="60">
         <f>AC7/(NOW()-AA7)</f>
-        <v>-0.759709338</v>
+        <v>-0.7579134904</v>
       </c>
       <c r="AF7" s="61"/>
       <c r="AG7" s="62" t="s">
@@ -28572,7 +28572,7 @@
       </c>
       <c r="J8" s="50">
         <f>Index!$C$2</f>
-        <v>48.05</v>
+        <v>47.44</v>
       </c>
       <c r="K8" s="51"/>
       <c r="L8" s="52"/>
@@ -28630,7 +28630,7 @@
       </c>
       <c r="J9" s="50">
         <f>Index!$C$2</f>
-        <v>48.05</v>
+        <v>47.44</v>
       </c>
       <c r="K9" s="51"/>
       <c r="L9" s="52"/>
@@ -28688,7 +28688,7 @@
       </c>
       <c r="J10" s="50">
         <f>Index!$C$2</f>
-        <v>48.05</v>
+        <v>47.44</v>
       </c>
       <c r="K10" s="51"/>
       <c r="L10" s="52"/>
@@ -28746,7 +28746,7 @@
       </c>
       <c r="J11" s="50">
         <f>Index!$C$2</f>
-        <v>48.05</v>
+        <v>47.44</v>
       </c>
       <c r="K11" s="51"/>
       <c r="L11" s="52"/>
@@ -28804,7 +28804,7 @@
       </c>
       <c r="J12" s="50">
         <f>Index!$C$2</f>
-        <v>48.05</v>
+        <v>47.44</v>
       </c>
       <c r="K12" s="51"/>
       <c r="L12" s="52"/>
@@ -28862,7 +28862,7 @@
       </c>
       <c r="J13" s="50">
         <f>Index!$C$2</f>
-        <v>48.05</v>
+        <v>47.44</v>
       </c>
       <c r="K13" s="51"/>
       <c r="L13" s="52"/>
@@ -28917,7 +28917,7 @@
       </c>
       <c r="J14" s="50">
         <f>Index!$C$2</f>
-        <v>48.05</v>
+        <v>47.44</v>
       </c>
       <c r="K14" s="51"/>
       <c r="L14" s="52"/>
@@ -28975,7 +28975,7 @@
       </c>
       <c r="J15" s="50">
         <f>Index!$C$2</f>
-        <v>48.05</v>
+        <v>47.44</v>
       </c>
       <c r="K15" s="51"/>
       <c r="L15" s="52"/>
@@ -44195,7 +44195,7 @@
     </filterColumn>
   </autoFilter>
   <customSheetViews>
-    <customSheetView guid="{741A8627-C023-4662-91AE-DB76CF74956A}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{ABFF7E03-9026-46C2-B95C-36BD1D6CDF22}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$4:$AR$44"/>
     </customSheetView>
   </customSheetViews>
